--- a/LIG数据分类.xlsx
+++ b/LIG数据分类.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f9ee702d9dfc6f0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\ui-code-generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{11356B22-EBA1-49CC-95AE-B20A1B00D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E594422C-BB94-4FEA-885E-206BE05552E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CA830-CE86-4721-B8E7-BE9C90746008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E56D278-3853-45EA-AE31-7021E5B052FF}"/>
   </bookViews>
@@ -765,6 +765,250 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>0 = Not Applied  
+1 = Applied</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开/关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx Hours,  1 HR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd hh:mm:ss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Motorola 6 Channel
+1 = Sony
+  3 = Generic NMEA Device
+4 = u-blox
+  11 = Motorola 12 Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Deenergized
+1 = Energized</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x Degree ,  0.1 Degree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.xx Degrees , .01 Degrees</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = No Air Brake Failure
+1 = Air Brake Failure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx Seconds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.x Volts,  0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = False 1 = True</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>False/True</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Not Active 1 = Active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x Volts,  0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.x Volts ,  0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx Horsepower,  1 HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.x Revolutions Per Minute,0.1 RPM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.xx Volts ,  0.01 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx Horsepower,  1 HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x CFM,  0.1 CFM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x PSI,  0.1 PSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.xx Volts,  0.01 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.xx Amps,  0.01 Amp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxx Pounds,  1 Pound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.xx HP, 1 HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 =堕转
+ 1 = 1 档
+ 2 = 2 档
+ 3 = 3 档
+ 4 = 4 档
+ 5 = 5 档
+  6 = 6 档
+  7 = 7 档
+  8 = 8 档
+ 9 =停机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Picked Up
+1 = Dropped Out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Reset
+1 = Disable
+2 = Init
+3 = Enable
+4 = Run</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx Megawatt-Hours,  1MWH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx Miles, 1 Mile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxx, N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x PSI, 0.1 PSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 =移车 1 =发动 2 =隔离  3 =运行  4 =电阻制动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = Apply
+1 = Released</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.x Volts, 0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.x Volts, 0.1 Volt</t>
+  </si>
+  <si>
+    <t>xx.x Volts, 0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx RPM, 1 RPM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.x Degree , 0.1 Degree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x Degree F, 0.1 Degree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx PSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.x PSI, 0.1 PSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x AMPS, 0.1 AMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx LB, 1 LB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.x Volts, 0.1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx Volts, 1 Volt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.x AMPS, 0.1 AMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx Degree , 1 Degree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxx.x AMPS, 0.1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.x MPH, 0.1 MPH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx HP, 1 HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 =客车 1 =货车 2 =切除   3 = Other, N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 =补机 切除4 = 主机切除 
+   5 = Lead Cut In Vacuum
+6=主机切入货车
+7=主机切入客 8 =其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本运行信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0 =堕转，制动设置，或制动
  1 = 1 档 
  2 = 2 档
@@ -775,259 +1019,37 @@
   7 = 7 档
   8 = 8 档
  9 =关闭
-  10 Invalid, N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Not Applied  
-1 = Applied</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开/关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx Hours,  1 HR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy-MM-dd hh:mm:ss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Motorola 6 Channel
-1 = Sony
-  3 = Generic NMEA Device
-4 = u-blox
-  11 = Motorola 12 Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Deenergized
-1 = Energized</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x Degree ,  0.1 Degree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.xx Degrees , .01 Degrees</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = No Air Brake Failure
-1 = Air Brake Failure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxx Seconds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx.x Volts,  0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = False 1 = True</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>False/True</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Not Active 1 = Active</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x Volts,  0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx.x Volts ,  0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx Horsepower,  1 HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.x Revolutions Per Minute,0.1 RPM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.xx Volts ,  0.01 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxx Horsepower,  1 HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x CFM,  0.1 CFM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x PSI,  0.1 PSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.xx Volts,  0.01 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.xx Amps,  0.01 Amp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxx Pounds,  1 Pound</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.xx HP, 1 HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 =堕转
- 1 = 1 档
- 2 = 2 档
- 3 = 3 档
- 4 = 4 档
- 5 = 5 档
-  6 = 6 档
-  7 = 7 档
-  8 = 8 档
- 9 =停机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Picked Up
-1 = Dropped Out</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Reset
-1 = Disable
-2 = Init
-3 = Enable
-4 = Run</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx Megawatt-Hours,  1MWH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx Miles, 1 Mile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x Degrees F, 0.1Degrees</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxx, N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x PSI, 0.1 PSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 =移车 1 =发动 2 =隔离  3 =运行  4 =电阻制动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = Apply
-1 = Released</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.x Volts, 0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx.x Volts, 0.1 Volt</t>
-  </si>
-  <si>
-    <t>xx.x Volts, 0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxx RPM, 1 RPM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.x Degree , 0.1 Degree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x Degree F, 0.1 Degree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx PSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx.x PSI, 0.1 PSI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x AMPS, 0.1 AMP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxx LB, 1 LB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx.x Volts, 0.1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx Volts, 1 Volt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.x A RMS, 0.1ARMS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx.x AMPS, 0.1 AMP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx Degree , 1 Degree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">xxxx.x AMPS, 0.1 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx.x MPH, 0.1 MPH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx HP, 1 HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 =客车 1 =货车 2 =切除   3 = Other, N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 =补机 切除4 = 主机切除 
-   5 = Lead Cut In Vacuum
-6=主机切入货车
-7=主机切入客 8 =其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本运行信息</t>
+  10=Invalid, N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xxx.x Degrees F, 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Degrees</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx.x A RMS, 0.1 ARMS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1111,13 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1192,8 +1221,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1508,26 +1537,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D944C31-6BEE-494B-9BFA-1345CBD85D16}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1547,13 +1576,13 @@
         <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
@@ -1579,7 +1608,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>30</v>
@@ -1605,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -1631,13 +1660,13 @@
         <v>202</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="147" x14ac:dyDescent="0.25">
@@ -1657,13 +1686,13 @@
         <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1687,7 +1716,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1711,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1731,13 +1760,13 @@
         <v>134</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -1751,19 +1780,19 @@
         <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.25">
@@ -1783,16 +1812,16 @@
         <v>144</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1807,7 +1836,7 @@
         <v>145</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>39</v>
@@ -1833,7 +1862,7 @@
         <v>146</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -1869,7 +1898,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1900,25 +1929,25 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1932,19 +1961,19 @@
         <v>154</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1958,19 +1987,19 @@
         <v>155</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1984,19 +2013,19 @@
         <v>156</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>185</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2010,19 +2039,19 @@
         <v>157</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>186</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2036,19 +2065,19 @@
         <v>158</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2062,19 +2091,19 @@
         <v>159</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2088,19 +2117,19 @@
         <v>160</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2108,25 +2137,25 @@
         <v>96</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>190</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2134,25 +2163,25 @@
         <v>97</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2160,25 +2189,25 @@
         <v>151</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2186,19 +2215,19 @@
         <v>152</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -2227,25 +2256,25 @@
         <v>98</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2253,25 +2282,25 @@
         <v>99</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2279,25 +2308,25 @@
         <v>100</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2305,25 +2334,25 @@
         <v>101</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2331,25 +2360,25 @@
         <v>102</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2357,25 +2386,25 @@
         <v>103</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2383,25 +2412,25 @@
         <v>104</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>131</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2409,25 +2438,25 @@
         <v>105</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2435,19 +2464,19 @@
         <v>106</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -2476,25 +2505,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>175</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2502,25 +2531,25 @@
         <v>51</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2528,25 +2557,25 @@
         <v>52</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>147</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2554,25 +2583,25 @@
         <v>53</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>178</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2580,25 +2609,25 @@
         <v>54</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2606,25 +2635,25 @@
         <v>55</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>150</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>180</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2632,25 +2661,25 @@
         <v>56</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2658,25 +2687,25 @@
         <v>57</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>182</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2684,19 +2713,19 @@
         <v>58</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G51" s="7"/>
     </row>
@@ -2705,7 +2734,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -2744,19 +2773,19 @@
         <v>18</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -2776,7 +2805,7 @@
         <v>195</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -2785,19 +2814,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G57" s="7"/>
     </row>
@@ -2812,13 +2841,13 @@
         <v>72</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G58" s="7"/>
     </row>
@@ -2833,13 +2862,13 @@
         <v>73</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>198</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G59" s="7"/>
     </row>
@@ -2858,7 +2887,7 @@
         <v>199</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G60" s="7"/>
     </row>
@@ -2891,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>80</v>

--- a/LIG数据分类.xlsx
+++ b/LIG数据分类.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\ui-code-generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CA830-CE86-4721-B8E7-BE9C90746008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005DEE6-2DD0-4786-93A3-CB20723AA651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E56D278-3853-45EA-AE31-7021E5B052FF}"/>
   </bookViews>
@@ -902,10 +902,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xxxxxxxx Megawatt-Hours,  1MWH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>xxxxxxxx Miles, 1 Mile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1050,6 +1046,10 @@
   </si>
   <si>
     <t>xxxx.x A RMS, 0.1 ARMS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx Megawatt-Hours,  1 MWH</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D944C31-6BEE-494B-9BFA-1345CBD85D16}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1554,9 +1554,9 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1565,7 +1565,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1666,10 +1666,10 @@
         <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>36</v>
@@ -1769,7 +1769,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -1913,7 +1913,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1924,33 +1924,33 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -1961,22 +1961,22 @@
         <v>154</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -1987,22 +1987,22 @@
         <v>155</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -2013,22 +2013,22 @@
         <v>156</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>185</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -2039,22 +2039,22 @@
         <v>157</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>186</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2065,22 +2065,22 @@
         <v>158</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -2091,22 +2091,22 @@
         <v>159</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2117,22 +2117,22 @@
         <v>160</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>96</v>
       </c>
@@ -2143,22 +2143,22 @@
         <v>161</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>190</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>162</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>137</v>
@@ -2181,21 +2181,21 @@
         <v>191</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>138</v>
@@ -2207,31 +2207,31 @@
         <v>192</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
@@ -2240,7 +2240,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>98</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>101</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>103</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>104</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>105</v>
       </c>
@@ -2456,10 +2456,10 @@
         <v>183</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
@@ -2489,7 +2489,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
@@ -2523,10 +2523,10 @@
         <v>175</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -2549,10 +2549,10 @@
         <v>176</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
@@ -2569,16 +2569,16 @@
         <v>147</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
@@ -2595,16 +2595,16 @@
         <v>148</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>178</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -2621,16 +2621,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
@@ -2647,16 +2647,16 @@
         <v>150</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>180</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>56</v>
       </c>
@@ -2673,16 +2673,16 @@
         <v>172</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
@@ -2699,16 +2699,16 @@
         <v>173</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>182</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
@@ -2725,11 +2725,11 @@
         <v>174</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>59</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="7"/>
@@ -2751,7 +2751,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>12</v>
       </c>
@@ -2773,22 +2773,22 @@
         <v>18</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>13</v>
       </c>
@@ -2805,16 +2805,16 @@
         <v>195</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>71</v>
@@ -2826,11 +2826,11 @@
         <v>196</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>15</v>
       </c>
@@ -2847,11 +2847,11 @@
         <v>197</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>16</v>
       </c>
@@ -2868,11 +2868,11 @@
         <v>198</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
@@ -2887,11 +2887,11 @@
         <v>199</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
@@ -2900,7 +2900,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>74</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>76</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="7"/>
